--- a/設計書/PythonGame/101_One_hour_Dungeon_基本設計.xlsx
+++ b/設計書/PythonGame/101_One_hour_Dungeon_基本設計.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyok\OneDrive\デスクトップ\gitRepositoy\ポートフォリオ\portfolio\設計書\PythonGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49107091-81F9-4578-9914-13CC1023582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9328B-4371-49AF-8E41-CB9411DED70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="2" r:id="rId2"/>
-    <sheet name="システム構成図" sheetId="3" r:id="rId3"/>
-    <sheet name="機能一覧" sheetId="4" r:id="rId4"/>
-    <sheet name="外部ライブラリ一覧" sheetId="7" r:id="rId5"/>
-    <sheet name="画面遷移図_フローチャート" sheetId="6" r:id="rId6"/>
+    <sheet name="目的" sheetId="8" r:id="rId3"/>
+    <sheet name="システム構成図" sheetId="3" r:id="rId4"/>
+    <sheet name="機能一覧" sheetId="4" r:id="rId5"/>
+    <sheet name="外部ライブラリ一覧" sheetId="7" r:id="rId6"/>
+    <sheet name="画面遷移図_フローチャート" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>Ver</t>
     <phoneticPr fontId="1"/>
@@ -652,6 +653,156 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲームの目的</t>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ダンジョンを進んでいき、何階まで進めるかを楽しむゲームです。
+10F、20F、30Fにそれぞれボスを配置しており、ボス戦も楽しめます</t>
+    <rPh sb="6" eb="7">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナンカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タノ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ダンジョン内には、宝箱、繭を配置し、宝箱からはアイテムか、SPダウンの毒効果、繭からは、SP回復か、敵との戦闘が仕込まれています。
+・HPは、敵との戦闘時に敵からダメージを受けると減って、0になるとゲームオーバーです。回復薬（Potion）で回復、１マス動くごとに回復することができます。
+・MPは、スキル使用時に消費する値で、歩くと回復します。
+・SPは、１マス歩くごとに減っていき、0になると、HPが減っていきます。繭から出現するアイテム、またはレベルアップで回復できます。</t>
+    <rPh sb="6" eb="7">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シコ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="75" eb="78">
+      <t>セントウジ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="110" eb="113">
+      <t>カイフクヤク</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="154" eb="157">
+      <t>シヨウジ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>マユ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -784,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1334,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1192,7 +1369,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1293,12 +1470,6 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,10 +1497,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1344,18 +1524,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1368,11 +1536,74 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1383,12 +1614,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1398,29 +1623,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1450,37 +1678,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1534,8 +1738,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1451429" y="822779"/>
-          <a:ext cx="6537778" cy="231321"/>
+          <a:off x="1480457" y="790121"/>
+          <a:ext cx="6668407" cy="225879"/>
           <a:chOff x="1234" y="3654"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
@@ -1688,8 +1892,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1451429" y="3012621"/>
-          <a:ext cx="6537778" cy="231322"/>
+          <a:off x="1480457" y="2892879"/>
+          <a:ext cx="6668407" cy="225878"/>
           <a:chOff x="1234" y="5634"/>
           <a:chExt cx="9721" cy="360"/>
         </a:xfrm>
@@ -5308,9 +5512,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.4140625" defaultRowHeight="9.5"/>
+  <sheetFormatPr defaultColWidth="2.3984375" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="16384" width="2.4140625" style="13"/>
+    <col min="1" max="16384" width="2.3984375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -5754,44 +5958,44 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
-      <c r="AL9" s="51"/>
-      <c r="AM9" s="51"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="52"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="50"/>
       <c r="AS9" s="22"/>
       <c r="AT9" s="22"/>
       <c r="AU9" s="22"/>
@@ -5810,42 +6014,42 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="55"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
+      <c r="AN10" s="52"/>
+      <c r="AO10" s="52"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="53"/>
       <c r="AS10" s="22"/>
       <c r="AT10" s="22"/>
       <c r="AU10" s="22"/>
@@ -5864,42 +6068,42 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="55"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="52"/>
+      <c r="AP11" s="52"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="53"/>
       <c r="AS11" s="22"/>
       <c r="AT11" s="22"/>
       <c r="AU11" s="22"/>
@@ -5918,42 +6122,42 @@
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="55"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="53"/>
       <c r="AS12" s="22"/>
       <c r="AT12" s="22"/>
       <c r="AU12" s="22"/>
@@ -5972,42 +6176,42 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="55"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="52"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="53"/>
       <c r="AS13" s="22"/>
       <c r="AT13" s="22"/>
       <c r="AU13" s="22"/>
@@ -6026,42 +6230,42 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="55"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
+      <c r="AD14" s="52"/>
+      <c r="AE14" s="52"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="52"/>
+      <c r="AH14" s="52"/>
+      <c r="AI14" s="52"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
+      <c r="AQ14" s="52"/>
+      <c r="AR14" s="53"/>
       <c r="AS14" s="22"/>
       <c r="AT14" s="22"/>
       <c r="AU14" s="22"/>
@@ -6080,42 +6284,42 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="54"/>
-      <c r="AH15" s="54"/>
-      <c r="AI15" s="54"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
-      <c r="AL15" s="54"/>
-      <c r="AM15" s="54"/>
-      <c r="AN15" s="54"/>
-      <c r="AO15" s="54"/>
-      <c r="AP15" s="54"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="55"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
+      <c r="AD15" s="52"/>
+      <c r="AE15" s="52"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="52"/>
+      <c r="AH15" s="52"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="53"/>
       <c r="AS15" s="22"/>
       <c r="AT15" s="22"/>
       <c r="AU15" s="22"/>
@@ -6134,42 +6338,42 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AF16" s="54"/>
-      <c r="AG16" s="54"/>
-      <c r="AH16" s="54"/>
-      <c r="AI16" s="54"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
-      <c r="AL16" s="54"/>
-      <c r="AM16" s="54"/>
-      <c r="AN16" s="54"/>
-      <c r="AO16" s="54"/>
-      <c r="AP16" s="54"/>
-      <c r="AQ16" s="54"/>
-      <c r="AR16" s="55"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52"/>
+      <c r="AR16" s="53"/>
       <c r="AS16" s="22"/>
       <c r="AT16" s="22"/>
       <c r="AU16" s="22"/>
@@ -6188,42 +6392,42 @@
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="55"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
+      <c r="AD17" s="52"/>
+      <c r="AE17" s="52"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="52"/>
+      <c r="AH17" s="52"/>
+      <c r="AI17" s="52"/>
+      <c r="AJ17" s="52"/>
+      <c r="AK17" s="52"/>
+      <c r="AL17" s="52"/>
+      <c r="AM17" s="52"/>
+      <c r="AN17" s="52"/>
+      <c r="AO17" s="52"/>
+      <c r="AP17" s="52"/>
+      <c r="AQ17" s="52"/>
+      <c r="AR17" s="53"/>
       <c r="AS17" s="22"/>
       <c r="AT17" s="22"/>
       <c r="AU17" s="22"/>
@@ -6242,42 +6446,42 @@
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="55"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="53"/>
       <c r="AS18" s="22"/>
       <c r="AT18" s="22"/>
       <c r="AU18" s="22"/>
@@ -6296,42 +6500,42 @@
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="55"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
+      <c r="AD19" s="52"/>
+      <c r="AE19" s="52"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="52"/>
+      <c r="AH19" s="52"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="52"/>
+      <c r="AK19" s="52"/>
+      <c r="AL19" s="52"/>
+      <c r="AM19" s="52"/>
+      <c r="AN19" s="52"/>
+      <c r="AO19" s="52"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="52"/>
+      <c r="AR19" s="53"/>
       <c r="AS19" s="22"/>
       <c r="AT19" s="22"/>
       <c r="AU19" s="22"/>
@@ -6350,42 +6554,42 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="55"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="53"/>
       <c r="AS20" s="22"/>
       <c r="AT20" s="22"/>
       <c r="AU20" s="22"/>
@@ -6404,42 +6608,42 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="55"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="53"/>
       <c r="AS21" s="21"/>
       <c r="AT21" s="21"/>
       <c r="AU21" s="21"/>
@@ -6458,42 +6662,42 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="58"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55"/>
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55"/>
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="56"/>
       <c r="AS22" s="21"/>
       <c r="AT22" s="21"/>
       <c r="AU22" s="21"/>
@@ -7287,30 +7491,30 @@
       <c r="AB37" s="21"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
-      <c r="AF37" s="49" t="s">
+      <c r="AF37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="49"/>
-      <c r="AH37" s="49"/>
-      <c r="AI37" s="49"/>
-      <c r="AJ37" s="49"/>
-      <c r="AK37" s="49"/>
-      <c r="AL37" s="48" t="s">
+      <c r="AG37" s="57"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="57"/>
+      <c r="AJ37" s="57"/>
+      <c r="AK37" s="57"/>
+      <c r="AL37" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="48"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="58"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="58"/>
+      <c r="AQ37" s="58"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="58"/>
+      <c r="AT37" s="58"/>
+      <c r="AU37" s="58"/>
+      <c r="AV37" s="58"/>
+      <c r="AW37" s="58"/>
+      <c r="AX37" s="58"/>
+      <c r="AY37" s="58"/>
       <c r="AZ37" s="15"/>
     </row>
     <row r="38" spans="1:52">
@@ -7344,29 +7548,29 @@
       <c r="AB38" s="21"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="49"/>
-      <c r="AH38" s="49"/>
-      <c r="AI38" s="49"/>
-      <c r="AJ38" s="49"/>
-      <c r="AK38" s="49"/>
-      <c r="AL38" s="48"/>
-      <c r="AM38" s="48"/>
-      <c r="AN38" s="48"/>
-      <c r="AO38" s="48"/>
-      <c r="AP38" s="48"/>
-      <c r="AQ38" s="48"/>
-      <c r="AR38" s="48"/>
-      <c r="AS38" s="48"/>
-      <c r="AT38" s="48"/>
-      <c r="AU38" s="48"/>
-      <c r="AV38" s="48"/>
-      <c r="AW38" s="48"/>
-      <c r="AX38" s="48"/>
-      <c r="AY38" s="48"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="58"/>
+      <c r="AM38" s="58"/>
+      <c r="AN38" s="58"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="58"/>
+      <c r="AQ38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="58"/>
+      <c r="AT38" s="58"/>
+      <c r="AU38" s="58"/>
+      <c r="AV38" s="58"/>
+      <c r="AW38" s="58"/>
+      <c r="AX38" s="58"/>
+      <c r="AY38" s="58"/>
       <c r="AZ38" s="15"/>
     </row>
-    <row r="39" spans="1:52" ht="9.5" customHeight="1">
+    <row r="39" spans="1:52" ht="9.4499999999999993" customHeight="1">
       <c r="A39" s="14"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -7398,33 +7602,33 @@
       <c r="AC39" s="21"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
-      <c r="AF39" s="49" t="s">
+      <c r="AF39" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AG39" s="49"/>
-      <c r="AH39" s="49"/>
-      <c r="AI39" s="49"/>
-      <c r="AJ39" s="49"/>
-      <c r="AK39" s="49"/>
-      <c r="AL39" s="48" t="s">
+      <c r="AG39" s="57"/>
+      <c r="AH39" s="57"/>
+      <c r="AI39" s="57"/>
+      <c r="AJ39" s="57"/>
+      <c r="AK39" s="57"/>
+      <c r="AL39" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="48"/>
-      <c r="AP39" s="48"/>
-      <c r="AQ39" s="48"/>
-      <c r="AR39" s="48"/>
-      <c r="AS39" s="48"/>
-      <c r="AT39" s="48"/>
-      <c r="AU39" s="48"/>
-      <c r="AV39" s="48"/>
-      <c r="AW39" s="48"/>
-      <c r="AX39" s="48"/>
-      <c r="AY39" s="48"/>
+      <c r="AM39" s="58"/>
+      <c r="AN39" s="58"/>
+      <c r="AO39" s="58"/>
+      <c r="AP39" s="58"/>
+      <c r="AQ39" s="58"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
       <c r="AZ39" s="15"/>
     </row>
-    <row r="40" spans="1:52" ht="9.5" customHeight="1">
+    <row r="40" spans="1:52" ht="9.4499999999999993" customHeight="1">
       <c r="A40" s="14"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -7456,26 +7660,26 @@
       <c r="AC40" s="21"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
-      <c r="AF40" s="49"/>
-      <c r="AG40" s="49"/>
-      <c r="AH40" s="49"/>
-      <c r="AI40" s="49"/>
-      <c r="AJ40" s="49"/>
-      <c r="AK40" s="49"/>
-      <c r="AL40" s="48"/>
-      <c r="AM40" s="48"/>
-      <c r="AN40" s="48"/>
-      <c r="AO40" s="48"/>
-      <c r="AP40" s="48"/>
-      <c r="AQ40" s="48"/>
-      <c r="AR40" s="48"/>
-      <c r="AS40" s="48"/>
-      <c r="AT40" s="48"/>
-      <c r="AU40" s="48"/>
-      <c r="AV40" s="48"/>
-      <c r="AW40" s="48"/>
-      <c r="AX40" s="48"/>
-      <c r="AY40" s="48"/>
+      <c r="AF40" s="57"/>
+      <c r="AG40" s="57"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="57"/>
+      <c r="AJ40" s="57"/>
+      <c r="AK40" s="57"/>
+      <c r="AL40" s="58"/>
+      <c r="AM40" s="58"/>
+      <c r="AN40" s="58"/>
+      <c r="AO40" s="58"/>
+      <c r="AP40" s="58"/>
+      <c r="AQ40" s="58"/>
+      <c r="AR40" s="58"/>
+      <c r="AS40" s="58"/>
+      <c r="AT40" s="58"/>
+      <c r="AU40" s="58"/>
+      <c r="AV40" s="58"/>
+      <c r="AW40" s="58"/>
+      <c r="AX40" s="58"/>
+      <c r="AY40" s="58"/>
       <c r="AZ40" s="15"/>
     </row>
     <row r="41" spans="1:52" ht="10.5" customHeight="1">
@@ -7510,30 +7714,30 @@
       <c r="AC41" s="21"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
-      <c r="AF41" s="49" t="s">
+      <c r="AF41" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="AG41" s="49"/>
-      <c r="AH41" s="49"/>
-      <c r="AI41" s="49"/>
-      <c r="AJ41" s="49"/>
-      <c r="AK41" s="49"/>
-      <c r="AL41" s="48" t="s">
+      <c r="AG41" s="57"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
+      <c r="AJ41" s="57"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AM41" s="48"/>
-      <c r="AN41" s="48"/>
-      <c r="AO41" s="48"/>
-      <c r="AP41" s="48"/>
-      <c r="AQ41" s="48"/>
-      <c r="AR41" s="48"/>
-      <c r="AS41" s="48"/>
-      <c r="AT41" s="48"/>
-      <c r="AU41" s="48"/>
-      <c r="AV41" s="48"/>
-      <c r="AW41" s="48"/>
-      <c r="AX41" s="48"/>
-      <c r="AY41" s="48"/>
+      <c r="AM41" s="58"/>
+      <c r="AN41" s="58"/>
+      <c r="AO41" s="58"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="58"/>
+      <c r="AR41" s="58"/>
+      <c r="AS41" s="58"/>
+      <c r="AT41" s="58"/>
+      <c r="AU41" s="58"/>
+      <c r="AV41" s="58"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="58"/>
+      <c r="AY41" s="58"/>
       <c r="AZ41" s="15"/>
     </row>
     <row r="42" spans="1:52" ht="10.5" customHeight="1">
@@ -7568,26 +7772,26 @@
       <c r="AC42" s="21"/>
       <c r="AD42" s="21"/>
       <c r="AE42" s="21"/>
-      <c r="AF42" s="49"/>
-      <c r="AG42" s="49"/>
-      <c r="AH42" s="49"/>
-      <c r="AI42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="48"/>
-      <c r="AM42" s="48"/>
-      <c r="AN42" s="48"/>
-      <c r="AO42" s="48"/>
-      <c r="AP42" s="48"/>
-      <c r="AQ42" s="48"/>
-      <c r="AR42" s="48"/>
-      <c r="AS42" s="48"/>
-      <c r="AT42" s="48"/>
-      <c r="AU42" s="48"/>
-      <c r="AV42" s="48"/>
-      <c r="AW42" s="48"/>
-      <c r="AX42" s="48"/>
-      <c r="AY42" s="48"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="58"/>
+      <c r="AM42" s="58"/>
+      <c r="AN42" s="58"/>
+      <c r="AO42" s="58"/>
+      <c r="AP42" s="58"/>
+      <c r="AQ42" s="58"/>
+      <c r="AR42" s="58"/>
+      <c r="AS42" s="58"/>
+      <c r="AT42" s="58"/>
+      <c r="AU42" s="58"/>
+      <c r="AV42" s="58"/>
+      <c r="AW42" s="58"/>
+      <c r="AX42" s="58"/>
+      <c r="AY42" s="58"/>
       <c r="AZ42" s="15"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -7622,30 +7826,30 @@
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
-      <c r="AF43" s="49" t="s">
+      <c r="AF43" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AG43" s="49"/>
-      <c r="AH43" s="49"/>
-      <c r="AI43" s="49"/>
-      <c r="AJ43" s="49"/>
-      <c r="AK43" s="49"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="57"/>
       <c r="AL43" s="59">
         <v>45636</v>
       </c>
-      <c r="AM43" s="48"/>
-      <c r="AN43" s="48"/>
-      <c r="AO43" s="48"/>
-      <c r="AP43" s="48"/>
-      <c r="AQ43" s="48"/>
-      <c r="AR43" s="48"/>
-      <c r="AS43" s="48"/>
-      <c r="AT43" s="48"/>
-      <c r="AU43" s="48"/>
-      <c r="AV43" s="48"/>
-      <c r="AW43" s="48"/>
-      <c r="AX43" s="48"/>
-      <c r="AY43" s="48"/>
+      <c r="AM43" s="58"/>
+      <c r="AN43" s="58"/>
+      <c r="AO43" s="58"/>
+      <c r="AP43" s="58"/>
+      <c r="AQ43" s="58"/>
+      <c r="AR43" s="58"/>
+      <c r="AS43" s="58"/>
+      <c r="AT43" s="58"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="58"/>
+      <c r="AX43" s="58"/>
+      <c r="AY43" s="58"/>
       <c r="AZ43" s="15"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -7680,26 +7884,26 @@
       <c r="AC44" s="21"/>
       <c r="AD44" s="21"/>
       <c r="AE44" s="21"/>
-      <c r="AF44" s="49"/>
-      <c r="AG44" s="49"/>
-      <c r="AH44" s="49"/>
-      <c r="AI44" s="49"/>
-      <c r="AJ44" s="49"/>
-      <c r="AK44" s="49"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="48"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="48"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="58"/>
+      <c r="AM44" s="58"/>
+      <c r="AN44" s="58"/>
+      <c r="AO44" s="58"/>
+      <c r="AP44" s="58"/>
+      <c r="AQ44" s="58"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="58"/>
+      <c r="AT44" s="58"/>
+      <c r="AU44" s="58"/>
+      <c r="AV44" s="58"/>
+      <c r="AW44" s="58"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="58"/>
       <c r="AZ44" s="15"/>
     </row>
     <row r="45" spans="1:52" ht="10.5" customHeight="1">
@@ -7734,30 +7938,30 @@
       <c r="AC45" s="21"/>
       <c r="AD45" s="21"/>
       <c r="AE45" s="21"/>
-      <c r="AF45" s="49" t="s">
+      <c r="AF45" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AG45" s="49"/>
-      <c r="AH45" s="49"/>
-      <c r="AI45" s="49"/>
-      <c r="AJ45" s="49"/>
-      <c r="AK45" s="49"/>
-      <c r="AL45" s="48" t="s">
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="57"/>
+      <c r="AL45" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AM45" s="48"/>
-      <c r="AN45" s="48"/>
-      <c r="AO45" s="48"/>
-      <c r="AP45" s="48"/>
-      <c r="AQ45" s="48"/>
-      <c r="AR45" s="48"/>
-      <c r="AS45" s="48"/>
-      <c r="AT45" s="48"/>
-      <c r="AU45" s="48"/>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="48"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="48"/>
+      <c r="AM45" s="58"/>
+      <c r="AN45" s="58"/>
+      <c r="AO45" s="58"/>
+      <c r="AP45" s="58"/>
+      <c r="AQ45" s="58"/>
+      <c r="AR45" s="58"/>
+      <c r="AS45" s="58"/>
+      <c r="AT45" s="58"/>
+      <c r="AU45" s="58"/>
+      <c r="AV45" s="58"/>
+      <c r="AW45" s="58"/>
+      <c r="AX45" s="58"/>
+      <c r="AY45" s="58"/>
       <c r="AZ45" s="15"/>
     </row>
     <row r="46" spans="1:52" ht="10.5" customHeight="1">
@@ -7792,26 +7996,26 @@
       <c r="AC46" s="21"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
-      <c r="AI46" s="49"/>
-      <c r="AJ46" s="49"/>
-      <c r="AK46" s="49"/>
-      <c r="AL46" s="48"/>
-      <c r="AM46" s="48"/>
-      <c r="AN46" s="48"/>
-      <c r="AO46" s="48"/>
-      <c r="AP46" s="48"/>
-      <c r="AQ46" s="48"/>
-      <c r="AR46" s="48"/>
-      <c r="AS46" s="48"/>
-      <c r="AT46" s="48"/>
-      <c r="AU46" s="48"/>
-      <c r="AV46" s="48"/>
-      <c r="AW46" s="48"/>
-      <c r="AX46" s="48"/>
-      <c r="AY46" s="48"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="57"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="58"/>
+      <c r="AN46" s="58"/>
+      <c r="AO46" s="58"/>
+      <c r="AP46" s="58"/>
+      <c r="AQ46" s="58"/>
+      <c r="AR46" s="58"/>
+      <c r="AS46" s="58"/>
+      <c r="AT46" s="58"/>
+      <c r="AU46" s="58"/>
+      <c r="AV46" s="58"/>
+      <c r="AW46" s="58"/>
+      <c r="AX46" s="58"/>
+      <c r="AY46" s="58"/>
       <c r="AZ46" s="15"/>
     </row>
     <row r="47" spans="1:52">
@@ -7924,17 +8128,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I9:AR22"/>
-    <mergeCell ref="AF41:AK42"/>
-    <mergeCell ref="AF37:AK38"/>
-    <mergeCell ref="AL37:AY38"/>
-    <mergeCell ref="AL43:AY44"/>
     <mergeCell ref="AL45:AY46"/>
     <mergeCell ref="AF43:AK44"/>
     <mergeCell ref="AF45:AK46"/>
     <mergeCell ref="AF39:AK40"/>
     <mergeCell ref="AL39:AY40"/>
     <mergeCell ref="AL41:AY42"/>
+    <mergeCell ref="I9:AR22"/>
+    <mergeCell ref="AF41:AK42"/>
+    <mergeCell ref="AF37:AK38"/>
+    <mergeCell ref="AL37:AY38"/>
+    <mergeCell ref="AL43:AY44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7948,293 +8152,300 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="3:60" ht="18" customHeight="1">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62" t="str">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
         <f>表紙!AL37</f>
         <v>OnehourDungeon</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="60" t="s">
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="65" t="s">
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
     </row>
     <row r="3" spans="3:60" ht="18" customHeight="1">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="str">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
         <f>表紙!AL39</f>
         <v>ローグライクRPG</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="72">
         <v>45636</v>
       </c>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="60"/>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="65" t="s">
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
     </row>
     <row r="4" spans="3:60" ht="9" customHeight="1"/>
     <row r="5" spans="3:60">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="67" t="s">
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67" t="s">
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="67" t="s">
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="60"/>
+      <c r="AU5" s="60"/>
+      <c r="AV5" s="60"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AY5" s="67"/>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="67"/>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67"/>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="67"/>
-      <c r="BH5" s="67"/>
+      <c r="AY5" s="60"/>
+      <c r="AZ5" s="60"/>
+      <c r="BA5" s="60"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="60"/>
+      <c r="BD5" s="60"/>
+      <c r="BE5" s="60"/>
+      <c r="BF5" s="60"/>
+      <c r="BG5" s="60"/>
+      <c r="BH5" s="60"/>
     </row>
     <row r="6" spans="3:60">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72">
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69">
         <v>45636</v>
       </c>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="67" t="s">
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67" t="s">
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="60"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BC2:BH2"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC3:BH3"/>
     <mergeCell ref="AX6:BH6"/>
     <mergeCell ref="AL6:AW6"/>
     <mergeCell ref="C2:M3"/>
@@ -8251,13 +8462,6 @@
     <mergeCell ref="AL2:AP2"/>
     <mergeCell ref="AQ2:AW2"/>
     <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="BC2:BH2"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC3:BH3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8265,158 +8469,541 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647B49B2-C572-41E3-8D64-0D51AF51891D}">
+  <dimension ref="C2:BJ7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="3:62" ht="18" customHeight="1">
+      <c r="C2" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
+        <f>変更履歴!W2</f>
+        <v>OnehourDungeon</v>
+      </c>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="71" t="str">
+        <f>変更履歴!AQ2</f>
+        <v>鷹木</v>
+      </c>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+    </row>
+    <row r="3" spans="3:62" ht="18" customHeight="1">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
+        <f>変更履歴!W3</f>
+        <v>ローグライクRPG</v>
+      </c>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="72">
+        <f>変更履歴!AQ3</f>
+        <v>45636</v>
+      </c>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+    </row>
+    <row r="4" spans="3:62" ht="10.5" customHeight="1"/>
+    <row r="5" spans="3:62">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="89"/>
+    </row>
+    <row r="6" spans="3:62" ht="108" customHeight="1">
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF6" s="118"/>
+      <c r="AG6" s="118"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="118"/>
+      <c r="AK6" s="118"/>
+      <c r="AL6" s="118"/>
+      <c r="AM6" s="118"/>
+      <c r="AN6" s="118"/>
+      <c r="AO6" s="118"/>
+      <c r="AP6" s="118"/>
+      <c r="AQ6" s="118"/>
+      <c r="AR6" s="118"/>
+      <c r="AS6" s="118"/>
+      <c r="AT6" s="118"/>
+      <c r="AU6" s="118"/>
+      <c r="AV6" s="118"/>
+      <c r="AW6" s="118"/>
+      <c r="AX6" s="118"/>
+      <c r="AY6" s="118"/>
+      <c r="AZ6" s="118"/>
+      <c r="BA6" s="118"/>
+      <c r="BB6" s="118"/>
+      <c r="BC6" s="118"/>
+      <c r="BD6" s="118"/>
+      <c r="BE6" s="118"/>
+      <c r="BF6" s="118"/>
+      <c r="BG6" s="118"/>
+      <c r="BH6" s="118"/>
+      <c r="BI6" s="118"/>
+      <c r="BJ6" s="119"/>
+    </row>
+    <row r="7" spans="3:62">
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="76"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="76"/>
+      <c r="BB7" s="76"/>
+      <c r="BC7" s="76"/>
+      <c r="BD7" s="76"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="76"/>
+      <c r="BG7" s="76"/>
+      <c r="BH7" s="76"/>
+      <c r="BI7" s="76"/>
+      <c r="BJ7" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:AD5"/>
+    <mergeCell ref="AE5:BJ5"/>
+    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="BE3:BJ3"/>
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="AE7:BJ7"/>
+    <mergeCell ref="E6:AD6"/>
+    <mergeCell ref="E7:AD7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="AE6:BJ6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C62EE6C-8443-4EB9-8EFD-0D97747C0706}">
   <dimension ref="C2:BH34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="3:60" ht="18" customHeight="1">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62" t="str">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
         <f>変更履歴!W2</f>
         <v>OnehourDungeon</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="60" t="str">
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="71" t="str">
         <f>変更履歴!AQ2</f>
         <v>鷹木</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="65" t="s">
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
     </row>
     <row r="3" spans="3:60" ht="18" customHeight="1">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="str">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
         <f>変更履歴!W3</f>
         <v>ローグライクRPG</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="72">
         <f>変更履歴!AQ3</f>
         <v>45636</v>
       </c>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="65" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
     </row>
     <row r="4" spans="3:60" ht="10.5" customHeight="1"/>
     <row r="5" spans="3:60">
@@ -10239,11 +10826,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AW2"/>
     <mergeCell ref="AX2:BB2"/>
     <mergeCell ref="BC2:BH2"/>
     <mergeCell ref="N3:V3"/>
@@ -10252,6 +10834,11 @@
     <mergeCell ref="AQ3:AW3"/>
     <mergeCell ref="AX3:BB3"/>
     <mergeCell ref="BC3:BH3"/>
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10259,1028 +10846,1070 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193D2FB4-1E52-4CA6-86F6-D69979B10835}">
   <dimension ref="C2:BH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10:BH10"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="3:60" ht="18" customHeight="1">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62" t="str">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
         <f>変更履歴!W2</f>
         <v>OnehourDungeon</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="65" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="60" t="str">
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="71" t="str">
         <f>変更履歴!AQ2</f>
         <v>鷹木</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="65" t="s">
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
+      <c r="AY2" s="70"/>
+      <c r="AZ2" s="70"/>
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
     </row>
     <row r="3" spans="3:60" ht="18" customHeight="1">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="str">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
         <f>変更履歴!W3</f>
         <v>ローグライクRPG</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66">
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="72">
         <f>変更履歴!AQ3</f>
         <v>45636</v>
       </c>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="65" t="s">
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
     </row>
     <row r="4" spans="3:60" ht="10.5" customHeight="1"/>
     <row r="5" spans="3:60">
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83" t="s">
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83" t="s">
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="83"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="83"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
     </row>
     <row r="6" spans="3:60">
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="83"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="83"/>
-      <c r="BG6" s="83"/>
-      <c r="BH6" s="83"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
     </row>
     <row r="7" spans="3:60">
       <c r="C7" s="84">
         <v>1</v>
       </c>
       <c r="D7" s="85"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81" t="s">
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="81"/>
-      <c r="AZ7" s="81"/>
-      <c r="BA7" s="81"/>
-      <c r="BB7" s="81"/>
-      <c r="BC7" s="81"/>
-      <c r="BD7" s="81"/>
-      <c r="BE7" s="81"/>
-      <c r="BF7" s="81"/>
-      <c r="BG7" s="81"/>
-      <c r="BH7" s="82"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97"/>
+      <c r="AP7" s="97"/>
+      <c r="AQ7" s="97"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="97"/>
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="97"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="97"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="97"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="98"/>
     </row>
     <row r="8" spans="3:60">
-      <c r="C8" s="89">
+      <c r="C8" s="91">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76" t="s">
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="94"/>
+      <c r="AI8" s="94"/>
+      <c r="AJ8" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="76"/>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="76"/>
-      <c r="BB8" s="76"/>
-      <c r="BC8" s="76"/>
-      <c r="BD8" s="76"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="76"/>
-      <c r="BG8" s="76"/>
-      <c r="BH8" s="77"/>
+      <c r="AK8" s="94"/>
+      <c r="AL8" s="94"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="94"/>
+      <c r="AO8" s="94"/>
+      <c r="AP8" s="94"/>
+      <c r="AQ8" s="94"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="94"/>
+      <c r="AT8" s="94"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="94"/>
+      <c r="BA8" s="94"/>
+      <c r="BB8" s="94"/>
+      <c r="BC8" s="94"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="94"/>
+      <c r="BF8" s="94"/>
+      <c r="BG8" s="94"/>
+      <c r="BH8" s="95"/>
     </row>
     <row r="9" spans="3:60">
-      <c r="C9" s="89">
+      <c r="C9" s="91">
         <f t="shared" ref="C9:C17" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="76"/>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="76"/>
-      <c r="BH9" s="77"/>
+      <c r="AK9" s="94"/>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="94"/>
+      <c r="AS9" s="94"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
+      <c r="AV9" s="94"/>
+      <c r="AW9" s="94"/>
+      <c r="AX9" s="94"/>
+      <c r="AY9" s="94"/>
+      <c r="AZ9" s="94"/>
+      <c r="BA9" s="94"/>
+      <c r="BB9" s="94"/>
+      <c r="BC9" s="94"/>
+      <c r="BD9" s="94"/>
+      <c r="BE9" s="94"/>
+      <c r="BF9" s="94"/>
+      <c r="BG9" s="94"/>
+      <c r="BH9" s="95"/>
     </row>
     <row r="10" spans="3:60">
-      <c r="C10" s="89">
+      <c r="C10" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="75" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="94"/>
+      <c r="AI10" s="94"/>
+      <c r="AJ10" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76"/>
-      <c r="BH10" s="77"/>
-    </row>
-    <row r="11" spans="3:60" ht="29" customHeight="1">
-      <c r="C11" s="89">
+      <c r="AK10" s="94"/>
+      <c r="AL10" s="94"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="94"/>
+      <c r="AO10" s="94"/>
+      <c r="AP10" s="94"/>
+      <c r="AQ10" s="94"/>
+      <c r="AR10" s="94"/>
+      <c r="AS10" s="94"/>
+      <c r="AT10" s="94"/>
+      <c r="AU10" s="94"/>
+      <c r="AV10" s="94"/>
+      <c r="AW10" s="94"/>
+      <c r="AX10" s="94"/>
+      <c r="AY10" s="94"/>
+      <c r="AZ10" s="94"/>
+      <c r="BA10" s="94"/>
+      <c r="BB10" s="94"/>
+      <c r="BC10" s="94"/>
+      <c r="BD10" s="94"/>
+      <c r="BE10" s="94"/>
+      <c r="BF10" s="94"/>
+      <c r="BG10" s="94"/>
+      <c r="BH10" s="95"/>
+    </row>
+    <row r="11" spans="3:60" ht="28.95" customHeight="1">
+      <c r="C11" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="78"/>
-      <c r="AZ11" s="78"/>
-      <c r="BA11" s="78"/>
-      <c r="BB11" s="78"/>
-      <c r="BC11" s="78"/>
-      <c r="BD11" s="78"/>
-      <c r="BE11" s="78"/>
-      <c r="BF11" s="78"/>
-      <c r="BG11" s="78"/>
-      <c r="BH11" s="79"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="94"/>
+      <c r="AI11" s="94"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="99"/>
+      <c r="AS11" s="99"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="99"/>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="99"/>
+      <c r="AY11" s="99"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="99"/>
+      <c r="BB11" s="99"/>
+      <c r="BC11" s="99"/>
+      <c r="BD11" s="99"/>
+      <c r="BE11" s="99"/>
+      <c r="BF11" s="99"/>
+      <c r="BG11" s="99"/>
+      <c r="BH11" s="100"/>
     </row>
     <row r="12" spans="3:60">
-      <c r="C12" s="89">
+      <c r="C12" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="77"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="95"/>
     </row>
     <row r="13" spans="3:60">
-      <c r="C13" s="89">
+      <c r="C13" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="76"/>
-      <c r="BB13" s="76"/>
-      <c r="BC13" s="76"/>
-      <c r="BD13" s="76"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="76"/>
-      <c r="BG13" s="76"/>
-      <c r="BH13" s="77"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="94"/>
+      <c r="AI13" s="94"/>
+      <c r="AJ13" s="94"/>
+      <c r="AK13" s="94"/>
+      <c r="AL13" s="94"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="94"/>
+      <c r="AO13" s="94"/>
+      <c r="AP13" s="94"/>
+      <c r="AQ13" s="94"/>
+      <c r="AR13" s="94"/>
+      <c r="AS13" s="94"/>
+      <c r="AT13" s="94"/>
+      <c r="AU13" s="94"/>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="94"/>
+      <c r="BF13" s="94"/>
+      <c r="BG13" s="94"/>
+      <c r="BH13" s="95"/>
     </row>
     <row r="14" spans="3:60">
-      <c r="C14" s="89">
+      <c r="C14" s="91">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="77"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="94"/>
+      <c r="AI14" s="94"/>
+      <c r="AJ14" s="94"/>
+      <c r="AK14" s="94"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="94"/>
+      <c r="AS14" s="94"/>
+      <c r="AT14" s="94"/>
+      <c r="AU14" s="94"/>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="94"/>
+      <c r="BF14" s="94"/>
+      <c r="BG14" s="94"/>
+      <c r="BH14" s="95"/>
     </row>
     <row r="15" spans="3:60">
-      <c r="C15" s="89">
+      <c r="C15" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="76"/>
-      <c r="BB15" s="76"/>
-      <c r="BC15" s="76"/>
-      <c r="BD15" s="76"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="77"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="94"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+      <c r="AK15" s="94"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="94"/>
+      <c r="AS15" s="94"/>
+      <c r="AT15" s="94"/>
+      <c r="AU15" s="94"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="94"/>
+      <c r="BF15" s="94"/>
+      <c r="BG15" s="94"/>
+      <c r="BH15" s="95"/>
     </row>
     <row r="16" spans="3:60">
-      <c r="C16" s="89">
+      <c r="C16" s="91">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="76"/>
-      <c r="BB16" s="76"/>
-      <c r="BC16" s="76"/>
-      <c r="BD16" s="76"/>
-      <c r="BE16" s="76"/>
-      <c r="BF16" s="76"/>
-      <c r="BG16" s="76"/>
-      <c r="BH16" s="77"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="94"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="95"/>
     </row>
     <row r="17" spans="3:60">
-      <c r="C17" s="86">
+      <c r="C17" s="73">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="73"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-      <c r="BC17" s="73"/>
-      <c r="BD17" s="73"/>
-      <c r="BE17" s="73"/>
-      <c r="BF17" s="73"/>
-      <c r="BG17" s="73"/>
-      <c r="BH17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="101"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="101"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="101"/>
+      <c r="AM17" s="101"/>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="101"/>
+      <c r="AQ17" s="101"/>
+      <c r="AR17" s="101"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="101"/>
+      <c r="AU17" s="101"/>
+      <c r="AV17" s="101"/>
+      <c r="AW17" s="101"/>
+      <c r="AX17" s="101"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="101"/>
+      <c r="BA17" s="101"/>
+      <c r="BB17" s="101"/>
+      <c r="BC17" s="101"/>
+      <c r="BD17" s="101"/>
+      <c r="BE17" s="101"/>
+      <c r="BF17" s="101"/>
+      <c r="BG17" s="101"/>
+      <c r="BH17" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="BC2:BH2"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC3:BH3"/>
-    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="M17:T17"/>
+    <mergeCell ref="U17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="AJ17:BH17"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="AJ15:BH15"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="AJ16:BH16"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="AJ14:BH14"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AB13"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="AJ13:BH13"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AJ12:BH12"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:AB11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="AJ11:BH11"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="AJ10:BH10"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:AB9"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AJ9:BH9"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:BH8"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AJ7:BH7"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:AB5"/>
+    <mergeCell ref="AC5:AI6"/>
+    <mergeCell ref="AJ5:BH6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:AB6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:L17"/>
@@ -11297,467 +11926,433 @@
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="E12:L12"/>
     <mergeCell ref="E14:L14"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="AC5:AI6"/>
-    <mergeCell ref="AJ5:BH6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:BH8"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="AC7:AI7"/>
-    <mergeCell ref="AJ7:BH7"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="AJ10:BH10"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AJ9:BH9"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AJ12:BH12"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:AB11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="AJ11:BH11"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="AJ14:BH14"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="AJ13:BH13"/>
-    <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="AJ17:BH17"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="AJ15:BH15"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
-    <mergeCell ref="AJ16:BH16"/>
+    <mergeCell ref="BC2:BH2"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AQ3:AW3"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC3:BH3"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AK2"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AQ2:AW2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16E15B-99BC-48C3-B96B-EE28F1ECC6D1}">
-  <dimension ref="C2:BH17"/>
+  <dimension ref="C2:BJ17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="3:60" ht="18" customHeight="1">
-      <c r="C2" s="68" t="s">
+    <row r="2" spans="3:62" ht="18" customHeight="1">
+      <c r="C2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62" t="str">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
         <f>変更履歴!W2</f>
         <v>OnehourDungeon</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
       <c r="AK2" s="64"/>
-      <c r="AL2" s="65" t="s">
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="65"/>
-      <c r="AP2" s="65"/>
-      <c r="AQ2" s="60" t="str">
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="70"/>
+      <c r="AQ2" s="70"/>
+      <c r="AR2" s="70"/>
+      <c r="AS2" s="71" t="str">
         <f>変更履歴!AQ2</f>
         <v>鷹木</v>
       </c>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="60"/>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="65" t="s">
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="65"/>
-      <c r="AZ2" s="65"/>
-      <c r="BA2" s="65"/>
-      <c r="BB2" s="65"/>
-      <c r="BC2" s="60"/>
-      <c r="BD2" s="60"/>
-      <c r="BE2" s="60"/>
-      <c r="BF2" s="60"/>
-      <c r="BG2" s="60"/>
-      <c r="BH2" s="60"/>
-    </row>
-    <row r="3" spans="3:60" ht="18" customHeight="1">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
+      <c r="BA2" s="70"/>
+      <c r="BB2" s="70"/>
+      <c r="BC2" s="70"/>
+      <c r="BD2" s="70"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+    </row>
+    <row r="3" spans="3:62" ht="18" customHeight="1">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="str">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
         <f>変更履歴!W3</f>
         <v>ローグライクRPG</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
       <c r="AK3" s="64"/>
-      <c r="AL3" s="65" t="s">
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="66">
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="72">
         <f>変更履歴!AQ3</f>
         <v>45636</v>
       </c>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="65" t="s">
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="65"/>
-      <c r="AZ3" s="65"/>
-      <c r="BA3" s="65"/>
-      <c r="BB3" s="65"/>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-    </row>
-    <row r="4" spans="3:60" ht="10.5" customHeight="1"/>
-    <row r="5" spans="3:60">
-      <c r="C5" s="83" t="s">
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+    </row>
+    <row r="4" spans="3:62" ht="10.5" customHeight="1"/>
+    <row r="5" spans="3:62">
+      <c r="C5" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83" t="s">
+      <c r="D5" s="89"/>
+      <c r="E5" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83" t="s">
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="89"/>
+      <c r="AB5" s="89"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="83"/>
-      <c r="AP5" s="83"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="83"/>
-      <c r="AT5" s="83"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="83"/>
-      <c r="AX5" s="83"/>
-      <c r="AY5" s="83"/>
-      <c r="AZ5" s="83"/>
-      <c r="BA5" s="83"/>
-      <c r="BB5" s="83"/>
-      <c r="BC5" s="83"/>
-      <c r="BD5" s="83"/>
-      <c r="BE5" s="83"/>
-      <c r="BF5" s="83"/>
-      <c r="BG5" s="83"/>
-      <c r="BH5" s="83"/>
-    </row>
-    <row r="6" spans="3:60">
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83" t="s">
+      <c r="AF5" s="89"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="89"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="89"/>
+      <c r="AL5" s="89"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="89"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="AW5" s="89"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="89"/>
+      <c r="BA5" s="89"/>
+      <c r="BB5" s="89"/>
+      <c r="BC5" s="89"/>
+      <c r="BD5" s="89"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="89"/>
+      <c r="BG5" s="89"/>
+      <c r="BH5" s="89"/>
+      <c r="BI5" s="89"/>
+      <c r="BJ5" s="89"/>
+    </row>
+    <row r="6" spans="3:62">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83" t="s">
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
-      <c r="AO6" s="83"/>
-      <c r="AP6" s="83"/>
-      <c r="AQ6" s="83"/>
-      <c r="AR6" s="83"/>
-      <c r="AS6" s="83"/>
-      <c r="AT6" s="83"/>
-      <c r="AU6" s="83"/>
-      <c r="AV6" s="83"/>
-      <c r="AW6" s="83"/>
-      <c r="AX6" s="83"/>
-      <c r="AY6" s="83"/>
-      <c r="AZ6" s="83"/>
-      <c r="BA6" s="83"/>
-      <c r="BB6" s="83"/>
-      <c r="BC6" s="83"/>
-      <c r="BD6" s="83"/>
-      <c r="BE6" s="83"/>
-      <c r="BF6" s="83"/>
-      <c r="BG6" s="83"/>
-      <c r="BH6" s="83"/>
-    </row>
-    <row r="7" spans="3:60" ht="60" customHeight="1">
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+    </row>
+    <row r="7" spans="3:62" ht="60" customHeight="1">
       <c r="C7" s="84">
         <v>1</v>
       </c>
       <c r="D7" s="85"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="109" t="s">
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="V7" s="110"/>
-      <c r="W7" s="110"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="110"/>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="110"/>
-      <c r="AB7" s="110"/>
-      <c r="AC7" s="100" t="s">
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="101"/>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="101"/>
-      <c r="BE7" s="101"/>
-      <c r="BF7" s="101"/>
-      <c r="BG7" s="101"/>
-      <c r="BH7" s="102"/>
-    </row>
-    <row r="8" spans="3:60" ht="32" customHeight="1">
-      <c r="C8" s="89">
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="87"/>
+      <c r="BA7" s="87"/>
+      <c r="BB7" s="87"/>
+      <c r="BC7" s="87"/>
+      <c r="BD7" s="87"/>
+      <c r="BE7" s="87"/>
+      <c r="BF7" s="87"/>
+      <c r="BG7" s="87"/>
+      <c r="BH7" s="87"/>
+      <c r="BI7" s="87"/>
+      <c r="BJ7" s="88"/>
+    </row>
+    <row r="8" spans="3:62" ht="35.4" customHeight="1">
+      <c r="C8" s="91">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="75" t="s">
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="78" t="s">
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="103" t="s">
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
       <c r="AF8" s="104"/>
       <c r="AG8" s="104"/>
       <c r="AH8" s="104"/>
@@ -11786,49 +12381,51 @@
       <c r="BE8" s="104"/>
       <c r="BF8" s="104"/>
       <c r="BG8" s="104"/>
-      <c r="BH8" s="105"/>
-    </row>
-    <row r="9" spans="3:60" ht="48.5" customHeight="1">
-      <c r="C9" s="89">
+      <c r="BH8" s="104"/>
+      <c r="BI8" s="104"/>
+      <c r="BJ8" s="105"/>
+    </row>
+    <row r="9" spans="3:62" ht="48.45" customHeight="1">
+      <c r="C9" s="91">
         <f t="shared" ref="C9:C17" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="75" t="s">
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="76" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="78" t="s">
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="103" t="s">
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
       <c r="AF9" s="104"/>
       <c r="AG9" s="104"/>
       <c r="AH9" s="104"/>
@@ -11857,49 +12454,51 @@
       <c r="BE9" s="104"/>
       <c r="BF9" s="104"/>
       <c r="BG9" s="104"/>
-      <c r="BH9" s="105"/>
-    </row>
-    <row r="10" spans="3:60" ht="49.5" customHeight="1">
-      <c r="C10" s="89">
+      <c r="BH9" s="104"/>
+      <c r="BI9" s="104"/>
+      <c r="BJ9" s="105"/>
+    </row>
+    <row r="10" spans="3:62" ht="49.5" customHeight="1">
+      <c r="C10" s="91">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="75" t="s">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="76" t="s">
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="78" t="s">
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="99" t="s">
         <v>80</v>
       </c>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="103" t="s">
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="AD10" s="104"/>
-      <c r="AE10" s="104"/>
       <c r="AF10" s="104"/>
       <c r="AG10" s="104"/>
       <c r="AH10" s="104"/>
@@ -11928,49 +12527,51 @@
       <c r="BE10" s="104"/>
       <c r="BF10" s="104"/>
       <c r="BG10" s="104"/>
-      <c r="BH10" s="105"/>
-    </row>
-    <row r="11" spans="3:60" ht="29" customHeight="1">
-      <c r="C11" s="89">
+      <c r="BH10" s="104"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="105"/>
+    </row>
+    <row r="11" spans="3:62" ht="28.95" customHeight="1">
+      <c r="C11" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="75" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76" t="s">
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="103" t="s">
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="94"/>
+      <c r="Z11" s="94"/>
+      <c r="AA11" s="94"/>
+      <c r="AB11" s="94"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="AD11" s="104"/>
-      <c r="AE11" s="104"/>
       <c r="AF11" s="104"/>
       <c r="AG11" s="104"/>
       <c r="AH11" s="104"/>
@@ -11999,41 +12600,43 @@
       <c r="BE11" s="104"/>
       <c r="BF11" s="104"/>
       <c r="BG11" s="104"/>
-      <c r="BH11" s="105"/>
-    </row>
-    <row r="12" spans="3:60">
-      <c r="C12" s="89">
+      <c r="BH11" s="104"/>
+      <c r="BI11" s="104"/>
+      <c r="BJ11" s="105"/>
+    </row>
+    <row r="12" spans="3:62">
+      <c r="C12" s="91">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="103"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="103"/>
       <c r="AF12" s="104"/>
       <c r="AG12" s="104"/>
       <c r="AH12" s="104"/>
@@ -12062,41 +12665,43 @@
       <c r="BE12" s="104"/>
       <c r="BF12" s="104"/>
       <c r="BG12" s="104"/>
-      <c r="BH12" s="105"/>
-    </row>
-    <row r="13" spans="3:60">
-      <c r="C13" s="89">
+      <c r="BH12" s="104"/>
+      <c r="BI12" s="104"/>
+      <c r="BJ12" s="105"/>
+    </row>
+    <row r="13" spans="3:62">
+      <c r="C13" s="91">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="94"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="103"/>
       <c r="AF13" s="104"/>
       <c r="AG13" s="104"/>
       <c r="AH13" s="104"/>
@@ -12125,41 +12730,43 @@
       <c r="BE13" s="104"/>
       <c r="BF13" s="104"/>
       <c r="BG13" s="104"/>
-      <c r="BH13" s="105"/>
-    </row>
-    <row r="14" spans="3:60">
-      <c r="C14" s="89">
+      <c r="BH13" s="104"/>
+      <c r="BI13" s="104"/>
+      <c r="BJ13" s="105"/>
+    </row>
+    <row r="14" spans="3:62">
+      <c r="C14" s="91">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="103"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="94"/>
+      <c r="AA14" s="94"/>
+      <c r="AB14" s="94"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="103"/>
       <c r="AF14" s="104"/>
       <c r="AG14" s="104"/>
       <c r="AH14" s="104"/>
@@ -12188,41 +12795,43 @@
       <c r="BE14" s="104"/>
       <c r="BF14" s="104"/>
       <c r="BG14" s="104"/>
-      <c r="BH14" s="105"/>
-    </row>
-    <row r="15" spans="3:60">
-      <c r="C15" s="89">
+      <c r="BH14" s="104"/>
+      <c r="BI14" s="104"/>
+      <c r="BJ14" s="105"/>
+    </row>
+    <row r="15" spans="3:62">
+      <c r="C15" s="91">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="103"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="94"/>
+      <c r="Z15" s="94"/>
+      <c r="AA15" s="94"/>
+      <c r="AB15" s="94"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="103"/>
       <c r="AF15" s="104"/>
       <c r="AG15" s="104"/>
       <c r="AH15" s="104"/>
@@ -12251,41 +12860,43 @@
       <c r="BE15" s="104"/>
       <c r="BF15" s="104"/>
       <c r="BG15" s="104"/>
-      <c r="BH15" s="105"/>
-    </row>
-    <row r="16" spans="3:60">
-      <c r="C16" s="89">
+      <c r="BH15" s="104"/>
+      <c r="BI15" s="104"/>
+      <c r="BJ15" s="105"/>
+    </row>
+    <row r="16" spans="3:62">
+      <c r="C16" s="91">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="103"/>
       <c r="AF16" s="104"/>
       <c r="AG16" s="104"/>
       <c r="AH16" s="104"/>
@@ -12314,306 +12925,310 @@
       <c r="BE16" s="104"/>
       <c r="BF16" s="104"/>
       <c r="BG16" s="104"/>
-      <c r="BH16" s="105"/>
-    </row>
-    <row r="17" spans="3:60">
-      <c r="C17" s="86">
+      <c r="BH16" s="104"/>
+      <c r="BI16" s="104"/>
+      <c r="BJ16" s="105"/>
+    </row>
+    <row r="17" spans="3:62">
+      <c r="C17" s="73">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="73"/>
-      <c r="AC17" s="106"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="107"/>
-      <c r="AL17" s="107"/>
-      <c r="AM17" s="107"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="107"/>
-      <c r="AP17" s="107"/>
-      <c r="AQ17" s="107"/>
-      <c r="AR17" s="107"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="107"/>
-      <c r="AU17" s="107"/>
-      <c r="AV17" s="107"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="107"/>
-      <c r="AZ17" s="107"/>
-      <c r="BA17" s="107"/>
-      <c r="BB17" s="107"/>
-      <c r="BC17" s="107"/>
-      <c r="BD17" s="107"/>
-      <c r="BE17" s="107"/>
-      <c r="BF17" s="107"/>
-      <c r="BG17" s="107"/>
-      <c r="BH17" s="108"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="101"/>
+      <c r="W17" s="101"/>
+      <c r="X17" s="101"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="101"/>
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="101"/>
+      <c r="AD17" s="101"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="76"/>
+      <c r="BC17" s="76"/>
+      <c r="BD17" s="76"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="76"/>
+      <c r="BG17" s="76"/>
+      <c r="BH17" s="76"/>
+      <c r="BI17" s="76"/>
+      <c r="BJ17" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AE5:BJ6"/>
+    <mergeCell ref="BE2:BJ2"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AM3"/>
+    <mergeCell ref="AN3:AR3"/>
+    <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BD3"/>
+    <mergeCell ref="BE3:BJ3"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E5:AD5"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="U6:AD6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:T7"/>
+    <mergeCell ref="U7:AD7"/>
+    <mergeCell ref="AE7:BJ7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:BJ8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:BJ9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:BJ10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:BJ11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="U12:AD12"/>
+    <mergeCell ref="AE12:BJ12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="U13:AD13"/>
+    <mergeCell ref="AE13:BJ13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:BJ14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="U15:AD15"/>
+    <mergeCell ref="AE15:BJ15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="U16:AD16"/>
+    <mergeCell ref="AE16:BJ16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="M17:T17"/>
-    <mergeCell ref="U17:AB17"/>
-    <mergeCell ref="AC17:BH17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="U16:AB16"/>
-    <mergeCell ref="AC16:BH16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="U15:AB15"/>
-    <mergeCell ref="AC15:BH15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="U14:AB14"/>
-    <mergeCell ref="AC14:BH14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="U13:AB13"/>
-    <mergeCell ref="AC13:BH13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="U12:AB12"/>
-    <mergeCell ref="AC12:BH12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="U11:AB11"/>
-    <mergeCell ref="AC11:BH11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:T10"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="AC10:BH10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="U9:AB9"/>
-    <mergeCell ref="AC9:BH9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="U8:AB8"/>
-    <mergeCell ref="AC8:BH8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:T7"/>
-    <mergeCell ref="U7:AB7"/>
-    <mergeCell ref="AC7:BH7"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:AB5"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="U6:AB6"/>
-    <mergeCell ref="AC5:BH6"/>
-    <mergeCell ref="BC2:BH2"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC3:BH3"/>
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="W2:AK2"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AQ2:AW2"/>
-    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="U17:AD17"/>
+    <mergeCell ref="AE17:BJ17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{933CE404-6D2C-4F57-B402-BB2C8C48624D}">
   <dimension ref="C2:BH75"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="3:60">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="61" t="s">
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="62" t="str">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63" t="str">
         <f>機能一覧!W2</f>
         <v>OnehourDungeon</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="91" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="93"/>
-      <c r="AQ2" s="94" t="str">
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="111" t="str">
         <f>機能一覧!AQ2</f>
         <v>鷹木</v>
       </c>
-      <c r="AR2" s="95"/>
-      <c r="AS2" s="95"/>
-      <c r="AT2" s="95"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="95"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="91" t="s">
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
+      <c r="AT2" s="112"/>
+      <c r="AU2" s="112"/>
+      <c r="AV2" s="112"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AY2" s="92"/>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="93"/>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="95"/>
-      <c r="BE2" s="95"/>
-      <c r="BF2" s="95"/>
-      <c r="BG2" s="95"/>
-      <c r="BH2" s="96"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="109"/>
+      <c r="BA2" s="109"/>
+      <c r="BB2" s="110"/>
+      <c r="BC2" s="111"/>
+      <c r="BD2" s="112"/>
+      <c r="BE2" s="112"/>
+      <c r="BF2" s="112"/>
+      <c r="BG2" s="112"/>
+      <c r="BH2" s="113"/>
     </row>
     <row r="3" spans="3:60">
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="61" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="62" t="str">
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="63" t="str">
         <f>機能一覧!W3</f>
         <v>ローグライクRPG</v>
       </c>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="91" t="s">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="92"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="97">
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="114">
         <f>機能一覧!AQ3</f>
         <v>45636</v>
       </c>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="98"/>
-      <c r="AU3" s="98"/>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="91" t="s">
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="AY3" s="92"/>
-      <c r="AZ3" s="92"/>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="95"/>
-      <c r="BE3" s="95"/>
-      <c r="BF3" s="95"/>
-      <c r="BG3" s="95"/>
-      <c r="BH3" s="96"/>
+      <c r="AY3" s="109"/>
+      <c r="AZ3" s="109"/>
+      <c r="BA3" s="109"/>
+      <c r="BB3" s="110"/>
+      <c r="BC3" s="111"/>
+      <c r="BD3" s="112"/>
+      <c r="BE3" s="112"/>
+      <c r="BF3" s="112"/>
+      <c r="BG3" s="112"/>
+      <c r="BH3" s="113"/>
     </row>
     <row r="5" spans="3:60">
       <c r="C5" s="23"/>
@@ -13381,6 +13996,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="AL2:AP2"/>
+    <mergeCell ref="AL3:AP3"/>
     <mergeCell ref="AX2:BB2"/>
     <mergeCell ref="AX3:BB3"/>
     <mergeCell ref="BC2:BH2"/>
@@ -13389,11 +14009,6 @@
     <mergeCell ref="W3:AK3"/>
     <mergeCell ref="AQ2:AW2"/>
     <mergeCell ref="AQ3:AW3"/>
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="N2:V2"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="AL2:AP2"/>
-    <mergeCell ref="AL3:AP3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
